--- a/Excel/TestScenarios.xlsx
+++ b/Excel/TestScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="6250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15250" windowHeight="4020"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario1.1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Scenario3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:E8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -621,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Excel/TestScenarios.xlsx
+++ b/Excel/TestScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="2440" firstSheet="39" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="2440" firstSheet="39" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="12" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7124" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7124" uniqueCount="1095">
   <si>
     <t>Description</t>
   </si>
@@ -3344,21 +3344,9 @@
     <t xml:space="preserve"> Add account</t>
   </si>
   <si>
-    <t>Xpath_//label[@for='id_transaction_statement_same_type']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click </t>
-  </si>
-  <si>
     <t>Same For All Accounts</t>
   </si>
   <si>
-    <t>Xpath_//label[@for='id_billing_statement_same_type']</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
@@ -3399,6 +3387,21 @@
   </si>
   <si>
     <t>ID_id_estmt-txn-1-account_number</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Paper Report (non-standard)</t>
+  </si>
+  <si>
+    <t>Xpath_.//*[@id='lock_form']/form/div[3]/div[5]/div/table/tbody/tr[1]/td[2]/p/label</t>
+  </si>
+  <si>
+    <t>Xpath_(//span[contains(text(),'Same For All Accounts')])[2]</t>
+  </si>
+  <si>
+    <t>Electronic Report (standard)</t>
   </si>
 </sst>
 </file>
@@ -17339,8 +17342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18707,7 +18710,7 @@
         <v>992</v>
       </c>
       <c r="D102" s="82" t="s">
-        <v>604</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
@@ -21275,8 +21278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21588,7 +21591,7 @@
         <v>1072</v>
       </c>
       <c r="D24" s="261" t="s">
-        <v>874</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.5">
@@ -22162,7 +22165,7 @@
         <v>992</v>
       </c>
       <c r="D76" s="90" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
@@ -22178,8 +22181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -22505,7 +22508,7 @@
         <v>1072</v>
       </c>
       <c r="D25" s="261" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.5">
@@ -22957,7 +22960,7 @@
         <v>992</v>
       </c>
       <c r="D66" s="90" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
@@ -23680,8 +23683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23981,7 +23984,7 @@
         <v>1072</v>
       </c>
       <c r="D23" s="261" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.5">
@@ -24240,8 +24243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24553,7 +24556,7 @@
         <v>1072</v>
       </c>
       <c r="D24" s="261" t="s">
-        <v>874</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.5">
@@ -25199,7 +25202,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25499,7 +25502,7 @@
         <v>1072</v>
       </c>
       <c r="D23" s="261" t="s">
-        <v>874</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="283" customFormat="1" ht="15.5">
@@ -25510,7 +25513,7 @@
         <v>993</v>
       </c>
       <c r="C24" s="260" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D24" s="260"/>
     </row>
@@ -25522,7 +25525,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="260" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D25" s="261" t="s">
         <v>6</v>
@@ -25536,7 +25539,7 @@
         <v>580</v>
       </c>
       <c r="C26" s="260" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D26" s="261" t="s">
         <v>874</v>
@@ -25550,10 +25553,10 @@
         <v>580</v>
       </c>
       <c r="C27" s="260" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D27" s="261" t="s">
-        <v>1073</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -25794,8 +25797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26107,7 +26110,7 @@
         <v>1072</v>
       </c>
       <c r="D24" s="261" t="s">
-        <v>874</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.5">
@@ -26118,7 +26121,7 @@
         <v>993</v>
       </c>
       <c r="C25" s="260" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D25" s="260"/>
     </row>
@@ -26130,7 +26133,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="260" t="s">
-        <v>872</v>
+        <v>1089</v>
       </c>
       <c r="D26" s="261" t="s">
         <v>6</v>
@@ -26144,7 +26147,7 @@
         <v>580</v>
       </c>
       <c r="C27" s="260" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D27" s="261" t="s">
         <v>1073</v>
@@ -26158,10 +26161,10 @@
         <v>580</v>
       </c>
       <c r="C28" s="260" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D28" s="261" t="s">
         <v>1091</v>
-      </c>
-      <c r="D28" s="261" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -26849,7 +26852,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D26"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -27138,95 +27141,95 @@
     </row>
     <row r="23" spans="1:4" ht="15.5">
       <c r="A23" s="35" t="s">
-        <v>927</v>
+        <v>1075</v>
       </c>
       <c r="B23" s="260" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23" s="260" t="s">
-        <v>872</v>
-      </c>
-      <c r="D23" s="261" t="s">
-        <v>6</v>
-      </c>
+        <v>1092</v>
+      </c>
+      <c r="D23" s="261"/>
     </row>
     <row r="24" spans="1:4" ht="15.5">
       <c r="A24" s="35" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="B24" s="260" t="s">
-        <v>580</v>
+        <v>10</v>
       </c>
       <c r="C24" s="260" t="s">
-        <v>873</v>
-      </c>
-      <c r="D24" s="261" t="s">
-        <v>874</v>
-      </c>
+        <v>1093</v>
+      </c>
+      <c r="D24" s="261"/>
     </row>
     <row r="25" spans="1:4" ht="15.5">
       <c r="A25" s="35" t="s">
-        <v>1071</v>
+        <v>927</v>
       </c>
       <c r="B25" s="260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="260" t="s">
+        <v>872</v>
+      </c>
+      <c r="D25" s="261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.5">
+      <c r="A26" s="35" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B26" s="260" t="s">
         <v>580</v>
       </c>
-      <c r="C25" s="260" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D25" s="261" t="s">
+      <c r="C26" s="260" t="s">
+        <v>873</v>
+      </c>
+      <c r="D26" s="261" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.5">
-      <c r="A26" s="260" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B26" s="260" t="s">
-        <v>993</v>
-      </c>
-      <c r="C26" s="260" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D26" s="260"/>
     </row>
     <row r="27" spans="1:4" ht="15.5">
       <c r="A27" s="35" t="s">
-        <v>927</v>
+        <v>1071</v>
       </c>
       <c r="B27" s="260" t="s">
-        <v>7</v>
+        <v>580</v>
       </c>
       <c r="C27" s="260" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
       <c r="D27" s="261" t="s">
-        <v>6</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="283" customFormat="1" ht="15.5">
-      <c r="A28" s="35" t="s">
-        <v>1077</v>
+      <c r="A28" s="260" t="s">
+        <v>1074</v>
       </c>
       <c r="B28" s="260" t="s">
-        <v>1076</v>
+        <v>993</v>
       </c>
       <c r="C28" s="260" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D28" s="261"/>
+        <v>1088</v>
+      </c>
+      <c r="D28" s="260"/>
     </row>
     <row r="29" spans="1:4" s="283" customFormat="1" ht="15.5">
       <c r="A29" s="35" t="s">
-        <v>1077</v>
+        <v>927</v>
       </c>
       <c r="B29" s="260" t="s">
-        <v>1076</v>
+        <v>7</v>
       </c>
       <c r="C29" s="260" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D29" s="261"/>
+        <v>1089</v>
+      </c>
+      <c r="D29" s="261" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.5">
       <c r="A30" s="35" t="s">
@@ -27236,7 +27239,7 @@
         <v>1017</v>
       </c>
       <c r="C30" s="260" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D30" s="261" t="s">
         <v>874</v>
@@ -27250,10 +27253,10 @@
         <v>1017</v>
       </c>
       <c r="C31" s="260" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D31" s="261" t="s">
-        <v>874</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -27495,6 +27498,7 @@
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27502,13 +27506,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
     <col min="2" max="2" width="28.54296875" customWidth="1"/>
     <col min="3" max="3" width="49.90625" customWidth="1"/>
     <col min="4" max="4" width="34.36328125" customWidth="1"/>
@@ -27778,95 +27782,95 @@
     </row>
     <row r="22" spans="1:4" ht="15.5">
       <c r="A22" s="35" t="s">
-        <v>927</v>
+        <v>1075</v>
       </c>
       <c r="B22" s="260" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" s="260" t="s">
-        <v>872</v>
-      </c>
-      <c r="D22" s="261" t="s">
-        <v>6</v>
-      </c>
+        <v>1092</v>
+      </c>
+      <c r="D22" s="261"/>
     </row>
     <row r="23" spans="1:4" ht="15.5">
       <c r="A23" s="35" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="B23" s="260" t="s">
-        <v>580</v>
+        <v>10</v>
       </c>
       <c r="C23" s="260" t="s">
-        <v>873</v>
-      </c>
-      <c r="D23" s="261" t="s">
-        <v>1073</v>
-      </c>
+        <v>1093</v>
+      </c>
+      <c r="D23" s="261"/>
     </row>
     <row r="24" spans="1:4" ht="15.5">
       <c r="A24" s="35" t="s">
-        <v>1071</v>
+        <v>927</v>
       </c>
       <c r="B24" s="260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="260" t="s">
+        <v>872</v>
+      </c>
+      <c r="D24" s="261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.5">
+      <c r="A25" s="35" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B25" s="260" t="s">
         <v>580</v>
       </c>
-      <c r="C24" s="260" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D24" s="261" t="s">
+      <c r="C25" s="260" t="s">
+        <v>873</v>
+      </c>
+      <c r="D25" s="261" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.5">
-      <c r="A25" s="260" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B25" s="260" t="s">
-        <v>993</v>
-      </c>
-      <c r="C25" s="260" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D25" s="260"/>
     </row>
     <row r="26" spans="1:4" ht="15.5">
       <c r="A26" s="35" t="s">
-        <v>927</v>
+        <v>1071</v>
       </c>
       <c r="B26" s="260" t="s">
-        <v>7</v>
+        <v>580</v>
       </c>
       <c r="C26" s="260" t="s">
-        <v>872</v>
+        <v>1072</v>
       </c>
       <c r="D26" s="261" t="s">
-        <v>6</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.5">
-      <c r="A27" s="35" t="s">
-        <v>1077</v>
+      <c r="A27" s="260" t="s">
+        <v>1074</v>
       </c>
       <c r="B27" s="260" t="s">
-        <v>1076</v>
+        <v>993</v>
       </c>
       <c r="C27" s="260" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D27" s="261"/>
+        <v>1088</v>
+      </c>
+      <c r="D27" s="260"/>
     </row>
     <row r="28" spans="1:4" ht="15.5">
       <c r="A28" s="35" t="s">
-        <v>1077</v>
+        <v>927</v>
       </c>
       <c r="B28" s="260" t="s">
-        <v>1076</v>
+        <v>7</v>
       </c>
       <c r="C28" s="260" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D28" s="261"/>
+        <v>1089</v>
+      </c>
+      <c r="D28" s="261" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.5">
       <c r="A29" s="35" t="s">
@@ -27876,7 +27880,7 @@
         <v>1017</v>
       </c>
       <c r="C29" s="260" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D29" s="261" t="s">
         <v>1073</v>
@@ -27890,10 +27894,10 @@
         <v>1017</v>
       </c>
       <c r="C30" s="260" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D30" s="261" t="s">
         <v>1091</v>
-      </c>
-      <c r="D30" s="261" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -28525,7 +28529,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -28800,95 +28804,95 @@
     </row>
     <row r="22" spans="1:4" ht="15.5">
       <c r="A22" s="35" t="s">
-        <v>927</v>
+        <v>1075</v>
       </c>
       <c r="B22" s="260" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" s="260" t="s">
-        <v>872</v>
-      </c>
-      <c r="D22" s="261" t="s">
-        <v>6</v>
-      </c>
+        <v>1092</v>
+      </c>
+      <c r="D22" s="261"/>
     </row>
     <row r="23" spans="1:4" ht="15.5">
       <c r="A23" s="35" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="B23" s="260" t="s">
-        <v>580</v>
+        <v>10</v>
       </c>
       <c r="C23" s="260" t="s">
-        <v>873</v>
-      </c>
-      <c r="D23" s="261" t="s">
-        <v>874</v>
-      </c>
+        <v>1093</v>
+      </c>
+      <c r="D23" s="261"/>
     </row>
     <row r="24" spans="1:4" ht="15.5">
       <c r="A24" s="35" t="s">
-        <v>1071</v>
+        <v>927</v>
       </c>
       <c r="B24" s="260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="260" t="s">
+        <v>872</v>
+      </c>
+      <c r="D24" s="261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.5">
+      <c r="A25" s="35" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B25" s="260" t="s">
         <v>580</v>
       </c>
-      <c r="C24" s="260" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D24" s="261" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.5">
-      <c r="A25" s="260" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B25" s="260" t="s">
-        <v>993</v>
-      </c>
       <c r="C25" s="260" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D25" s="260"/>
+        <v>873</v>
+      </c>
+      <c r="D25" s="261" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.5">
       <c r="A26" s="35" t="s">
-        <v>927</v>
+        <v>1071</v>
       </c>
       <c r="B26" s="260" t="s">
-        <v>7</v>
+        <v>580</v>
       </c>
       <c r="C26" s="260" t="s">
-        <v>872</v>
+        <v>1072</v>
       </c>
       <c r="D26" s="261" t="s">
-        <v>6</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.5">
-      <c r="A27" s="35" t="s">
-        <v>1077</v>
+      <c r="A27" s="260" t="s">
+        <v>1074</v>
       </c>
       <c r="B27" s="260" t="s">
-        <v>1076</v>
+        <v>993</v>
       </c>
       <c r="C27" s="260" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D27" s="261"/>
+        <v>1088</v>
+      </c>
+      <c r="D27" s="260"/>
     </row>
     <row r="28" spans="1:4" ht="15.5">
       <c r="A28" s="35" t="s">
-        <v>1077</v>
+        <v>927</v>
       </c>
       <c r="B28" s="260" t="s">
-        <v>1076</v>
+        <v>7</v>
       </c>
       <c r="C28" s="260" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D28" s="261"/>
+        <v>1089</v>
+      </c>
+      <c r="D28" s="261" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.5">
       <c r="A29" s="35" t="s">
@@ -28898,7 +28902,7 @@
         <v>1017</v>
       </c>
       <c r="C29" s="260" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D29" s="261" t="s">
         <v>874</v>
@@ -28912,10 +28916,10 @@
         <v>1017</v>
       </c>
       <c r="C30" s="260" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D30" s="261" t="s">
         <v>1091</v>
-      </c>
-      <c r="D30" s="261" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -29175,7 +29179,7 @@
         <v>210</v>
       </c>
       <c r="D54" s="278" t="s">
-        <v>1079</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -29183,6 +29187,7 @@
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29190,8 +29195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -30603,7 +30608,7 @@
         <v>992</v>
       </c>
       <c r="D104" s="79" t="s">
-        <v>785</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -31631,7 +31636,7 @@
         <v>117</v>
       </c>
       <c r="D27" s="270" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -31645,7 +31650,7 @@
         <v>120</v>
       </c>
       <c r="D28" s="270" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -31659,7 +31664,7 @@
         <v>121</v>
       </c>
       <c r="D29" s="316" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -31681,7 +31686,7 @@
         <v>255</v>
       </c>
       <c r="B31" s="315" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C31" s="315" t="s">
         <v>254</v>
@@ -31796,7 +31801,7 @@
         <v>91</v>
       </c>
       <c r="D40" s="287" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -32401,7 +32406,7 @@
         <v>993</v>
       </c>
       <c r="C85" s="315" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D85"/>
     </row>
@@ -32505,7 +32510,7 @@
         <v>993</v>
       </c>
       <c r="C93" s="315" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="29">
@@ -32715,7 +32720,7 @@
         <v>992</v>
       </c>
       <c r="D109" s="298" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
